--- a/Sura/DataSource - Cotización Motor.xlsx
+++ b/Sura/DataSource - Cotización Motor.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D41BEA-C18D-4A22-AB1C-A1B25D83DE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27757EB9-D8DB-4F56-B4AA-E772E68726FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Usuario</t>
   </si>
@@ -96,9 +93,6 @@
     <t>Ambiente</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>CantCuotas</t>
   </si>
   <si>
@@ -135,16 +129,25 @@
     <t>C - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>22/02/2021</t>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>MMM111</t>
+  </si>
+  <si>
+    <t>MASDAS12312</t>
+  </si>
+  <si>
+    <t>ASDAKE1232</t>
   </si>
 </sst>
 </file>
@@ -229,42 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Emisión_Motor"/>
-      <sheetName val="Motor_Answer"/>
-      <sheetName val="EmisionFlota"/>
-      <sheetName val="EmisionAP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="29">
-          <cell r="R29" t="str">
-            <v>SET172</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="R30" t="str">
-            <v>SET173</v>
-          </cell>
-          <cell r="S30" t="str">
-            <v>ABC12SET173</v>
-          </cell>
-          <cell r="T30" t="str">
-            <v>ZAZ123SET173</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -590,25 +557,25 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R1" t="s">
         <v>7</v>
@@ -639,8 +606,8 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
@@ -649,10 +616,10 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3">
-        <v>4598400429</v>
+        <v>9498924883</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -661,25 +628,23 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1"/>
       <c r="R2">
         <v>2021</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2">
         <v>147</v>
@@ -688,19 +653,16 @@
         <v>900000</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="str">
-        <f>[1]Emisión_Motor!$R30</f>
-        <v>SET173</v>
-      </c>
-      <c r="X2" t="str">
-        <f>[1]Emisión_Motor!$S30</f>
-        <v>ABC12SET173</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>[1]Emisión_Motor!$T30</f>
-        <v>ZAZ123SET173</v>
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
@@ -780,10 +742,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5F138FFA-8640-490A-A814-541D61B57B14}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Cotización Motor.xlsx
+++ b/Sura/DataSource - Cotización Motor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27757EB9-D8DB-4F56-B4AA-E772E68726FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84322148-60EE-486C-A3BB-2AA06F59C5C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>FechaInicio</t>
   </si>
   <si>
-    <t>3 meses</t>
-  </si>
-  <si>
     <t>TipoTarjeta</t>
   </si>
   <si>
@@ -141,13 +138,16 @@
     <t>No</t>
   </si>
   <si>
-    <t>MMM111</t>
-  </si>
-  <si>
-    <t>MASDAS12312</t>
-  </si>
-  <si>
-    <t>ASDAKE1232</t>
+    <t>MMM115</t>
+  </si>
+  <si>
+    <t>MASDAS12316</t>
+  </si>
+  <si>
+    <t>ASDAKE1236</t>
+  </si>
+  <si>
+    <t>Anual</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     <col min="7" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="17" width="21.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
     <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="7.85546875" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
@@ -560,19 +560,19 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -607,19 +607,19 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
-        <v>9498924883</v>
+        <v>8684079401</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -628,13 +628,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -653,16 +653,16 @@
         <v>900000</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
       </c>
       <c r="Z2" t="s">
         <v>18</v>
